--- a/data/experiments.xlsx
+++ b/data/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/My Drive/science/manuscripts/20220101 susi first paper/2022_halamka_et_al/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759C603-DC3D-A34C-A7F4-34CC346D4880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98953C56-A54C-7E46-8BDD-DA290C11B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35060" windowHeight="23280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>exp_ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>inoculation</t>
   </si>
   <si>
-    <t>exp_notes</t>
-  </si>
-  <si>
     <t>exp62</t>
   </si>
   <si>
@@ -58,15 +55,9 @@
     <t>1% OD630=0.78</t>
   </si>
   <si>
-    <t>ministat with OD630 reader in quadruplicate; 5% O2</t>
-  </si>
-  <si>
     <t>exp63</t>
   </si>
   <si>
-    <t>ministat with OD630 reader in quadruplicate; 1% O2</t>
-  </si>
-  <si>
     <t>exp65</t>
   </si>
   <si>
@@ -119,6 +110,9 @@
   </si>
   <si>
     <t>exp80</t>
+  </si>
+  <si>
+    <t>ministat</t>
   </si>
 </sst>
 </file>
@@ -471,7 +465,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,7 +477,7 @@
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -509,18 +503,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -532,18 +526,18 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>5.5</v>
@@ -555,18 +549,18 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
@@ -578,18 +572,18 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -601,18 +595,18 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>5.5</v>
@@ -624,18 +618,18 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -647,18 +641,18 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>6.5</v>
@@ -670,18 +664,18 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -693,18 +687,18 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>5.5</v>
@@ -716,18 +710,18 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -739,18 +733,18 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>6.5</v>
@@ -762,18 +756,18 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -785,18 +779,18 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>5.5</v>
@@ -808,18 +802,18 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -831,18 +825,18 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>6.5</v>
@@ -854,18 +848,18 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>5.5</v>
@@ -877,21 +871,21 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>5.5</v>
@@ -903,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
